--- a/Project Documentation/GTPR - ColecoVision.xlsx
+++ b/Project Documentation/GTPR - ColecoVision.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ComputerScienceFS\PP4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ComputerScienceFS\PP4\dev4-team-project-2404-blue-team-2404\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B73C78-39F4-4D55-8655-9487336C4B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD30319-1994-4B03-AF70-B1D1C5F519F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30900" yWindow="1875" windowWidth="23220" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info" sheetId="1" r:id="rId1"/>
@@ -457,10 +457,10 @@
     <t>Team-Color? Blue 2404</t>
   </si>
   <si>
-    <t>Pitfall - https://youtu.be/WSGwL2xznfM</t>
-  </si>
-  <si>
     <t>Dungeon Divers</t>
+  </si>
+  <si>
+    <t>Venture - https://www.youtube.com/watch?v=WSGwL2xznfM&amp;t=166s</t>
   </si>
 </sst>
 </file>
@@ -1423,7 +1423,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1513,10 +1513,10 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>105</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>86</v>
